--- a/Prostate_Cancer.xlsx
+++ b/Prostate_Cancer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9ce8f9f4314e06f/Desktop/MS/Semester - 2/Linear Regression and Time Series/Case Study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c9ce8f9f4314e06f/Desktop/MS/Semester - 2/Linear Regression and Time Series/Case_Study/Case_Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B950D92D-6B84-498B-B4E5-04A39E77F2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B950D92D-6B84-498B-B4E5-04A39E77F2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CFCE62-6386-4FCC-96CD-51185B27F39F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{18A39FB4-045D-414B-AB61-5A98D18768AC}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>PSA</t>
   </si>
   <si>
-    <t>Cance Vol</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -40,13 +37,16 @@
     <t>BPH</t>
   </si>
   <si>
-    <t>invasion</t>
+    <t>GleasonScore</t>
   </si>
   <si>
-    <t>capsula Penetration</t>
+    <t>CapsulaPenetration</t>
   </si>
   <si>
-    <t>Gleason Score</t>
+    <t>Invasion</t>
+  </si>
+  <si>
+    <t>CancerVol</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,25 +933,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
